--- a/docs/TODO_CHECK.xlsx
+++ b/docs/TODO_CHECK.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="22">
   <si>
     <t>Limpiar comentarios</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>OK</t>
+  </si>
+  <si>
+    <t>Identar las funciones.</t>
   </si>
 </sst>
 </file>
@@ -424,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -484,6 +487,9 @@
       <c r="B6" t="s">
         <v>20</v>
       </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -492,14 +498,14 @@
       <c r="B7" t="s">
         <v>20</v>
       </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -508,6 +514,9 @@
       <c r="B9" t="s">
         <v>20</v>
       </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -516,6 +525,9 @@
       <c r="B10" t="s">
         <v>20</v>
       </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -524,6 +536,9 @@
       <c r="B11" t="s">
         <v>20</v>
       </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -532,78 +547,86 @@
       <c r="B12" t="s">
         <v>20</v>
       </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>6</v>
       </c>
     </row>
